--- a/ixo_qpcr_analysis_automation_TEMPLATE.xlsx
+++ b/ixo_qpcr_analysis_automation_TEMPLATE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/HallerLab/Matthew Cox/Haller Lab/Projects/qPCR Analysis Automation/^^ PLEASE MAKE A COPY OF THIS TEMPLATE IF YOU WANT TO USE IT^^/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF1D3E6-2B77-284C-8835-3FF12AC4B6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C29CE9B-7659-C44E-99E9-4163D1E6B28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16540" activeTab="3" xr2:uid="{E4238D87-52D2-44A5-BC30-F7CF3E81FAA4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16540" xr2:uid="{E4238D87-52D2-44A5-BC30-F7CF3E81FAA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Sheet" sheetId="1" r:id="rId1"/>
@@ -817,7 +817,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FBD871-6FDE-45A9-972E-DE2D696F694F}">
   <dimension ref="A1:O253"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3246,7 +3248,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5BCF18-833D-8F4F-A237-DFDC2138A792}">
   <dimension ref="A1:CW385"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="CW2" sqref="CW2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -47591,7 +47595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2E58D2-98F1-C443-902E-BFA453061AD4}">
   <dimension ref="A1:EL3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/ixo_qpcr_analysis_automation_TEMPLATE.xlsx
+++ b/ixo_qpcr_analysis_automation_TEMPLATE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/HallerLab/Matthew Cox/Haller Lab/Projects/qPCR Analysis Automation/^^ PLEASE MAKE A COPY OF THIS TEMPLATE IF YOU WANT TO USE IT^^/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewcox/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C29CE9B-7659-C44E-99E9-4163D1E6B28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369CED77-A174-5E49-818E-24BDB8125E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16540" xr2:uid="{E4238D87-52D2-44A5-BC30-F7CF3E81FAA4}"/>
   </bookViews>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="46">
   <si>
     <t>Target list</t>
   </si>
@@ -198,9 +198,6 @@
     <t>Avg Ct</t>
   </si>
   <si>
-    <t>Unique sample IDs (Pulled programatically for ease of rearangment in the adjacent column).                      &lt;------</t>
-  </si>
-  <si>
     <t>Δ CT =(µTARGETct) - (µHKct)</t>
   </si>
   <si>
@@ -217,24 +214,6 @@
   </si>
   <si>
     <t>Samples</t>
-  </si>
-  <si>
-    <t>STEP 1: Copy from LightCycler480 analysis and paste directly into cell A1, overwritting the red cell</t>
-  </si>
-  <si>
-    <t>STEP 2: Fill in Target genes in the "Concentration" column after pasting.</t>
-  </si>
-  <si>
-    <t>STEP 4: Sample list (Fill in all sample names with the control sample on top)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If, after inputting in all relevant data, the final outputs sheet is still missing your data, press CTL + ALT +  F9 (PC) or Command + Alt + F9 (MAC) to recalculate, or refresh, all sheets. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finally, Plots are made easy in the Final Output sheet. </t>
-  </si>
-  <si>
-    <t>STEP 3: Target list (Fill in all genes tested with Housekeeper gene on top)</t>
   </si>
   <si>
     <t>Target gene 11</t>
@@ -266,24 +245,44 @@
   <si>
     <t>Target gene 13</t>
   </si>
+  <si>
+    <t>STEP 1: Copy from LightCycler480 analysis. Click ONCE on cell A1. Finally Paste the table.</t>
+  </si>
+  <si>
+    <t>https://github.com/MCox-MDIBL/MCOX_MDIBL_Tools-and-Resources</t>
+  </si>
+  <si>
+    <t>INSTRUCTIONS:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEP 3: Target list - Fill in all genes tested with Housekeeper gene on top in the grey column directly below (Column K).                    </t>
+  </si>
+  <si>
+    <t>STEP 4: Sample list -  Fill in all sample names with the control sample on top in the grey column directly below (Column L).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique samples -  Pulled programatically for ease of rearangment in the adjacent column. (Should be populated after Step 3).                         </t>
+  </si>
+  <si>
+    <t>STEP 2: Fill in measured Target genes  in the "Concentration" column for each well (Column 'E').</t>
+  </si>
+  <si>
+    <t>If, after inputting all relevant data, the final outputs sheet is still missing your data, press CTL + ALT +  F9 (PC) or Command + Alt + F9 (MAC) to recalculate, or refresh, all sheets. If any mistakes or concerns come up, please feel free to email me: mcox@mdibl.org</t>
+  </si>
+  <si>
+    <t>Original template can be downloaded as many times as necessary from my GitHub link.          -----&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -325,6 +324,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -364,7 +393,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -387,36 +416,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -815,24 +866,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FBD871-6FDE-45A9-972E-DE2D696F694F}">
-  <dimension ref="A1:O253"/>
+  <dimension ref="A1:P253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="20.83203125" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
     <col min="11" max="11" width="23.1640625" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" customWidth="1"/>
-    <col min="13" max="13" width="19.83203125" customWidth="1"/>
+    <col min="12" max="12" width="20.5" customWidth="1"/>
+    <col min="13" max="13" width="22.5" customWidth="1"/>
     <col min="14" max="14" width="41.1640625" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
+    <col min="16" max="16" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="132" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -840,29 +894,35 @@
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
-      <c r="I1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -871,13 +931,13 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="L2" s="12"/>
       <c r="M2" t="str" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.UNIQUE(_xlfn.ANCHORARRAY('Formatting and sorting sheet'!M2))</f>
         <v>No data</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -888,7 +948,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -899,7 +959,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -910,7 +970,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -921,7 +981,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -932,7 +992,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -943,7 +1003,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -954,7 +1014,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -965,7 +1025,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -976,7 +1036,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -987,7 +1047,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -998,7 +1058,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1009,7 +1069,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1020,7 +1080,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -3238,7 +3298,10 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G385">
     <sortCondition ref="C2:C385"/>
   </sortState>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="P1" r:id="rId1" xr:uid="{683C26DD-5B74-3842-BC13-E7D752D62274}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3248,9 +3311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5BCF18-833D-8F4F-A237-DFDC2138A792}">
   <dimension ref="A1:CW385"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="CW2" sqref="CW2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3357,34 +3418,34 @@
         <v>18</v>
       </c>
       <c r="BM1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="BQ1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="BU1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="CC1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="BQ1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="BU1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="BY1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="CC1" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="CG1" s="6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="CK1" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="CO1" s="6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="CS1" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="CW1" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:101" x14ac:dyDescent="0.2">
@@ -18319,7 +18380,7 @@
         <v>20</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>9</v>
@@ -18331,19 +18392,19 @@
         <v>20</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>10</v>
@@ -18355,19 +18416,19 @@
         <v>20</v>
       </c>
       <c r="V1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="AA1" s="4" t="s">
         <v>11</v>
@@ -18379,19 +18440,19 @@
         <v>20</v>
       </c>
       <c r="AF1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="AK1" s="4" t="s">
         <v>12</v>
@@ -18403,19 +18464,19 @@
         <v>20</v>
       </c>
       <c r="AP1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="AU1" s="4" t="s">
         <v>13</v>
@@ -18427,19 +18488,19 @@
         <v>20</v>
       </c>
       <c r="AZ1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BB1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="BB1" s="5" t="s">
+      <c r="BC1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="BD1" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="BE1" s="4" t="s">
         <v>14</v>
@@ -18451,19 +18512,19 @@
         <v>20</v>
       </c>
       <c r="BJ1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="BK1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="BK1" s="5" t="s">
+      <c r="BL1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="BL1" s="5" t="s">
+      <c r="BM1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="BM1" s="5" t="s">
+      <c r="BN1" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="BN1" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="BO1" s="4" t="s">
         <v>15</v>
@@ -18475,19 +18536,19 @@
         <v>20</v>
       </c>
       <c r="BT1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="BU1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="BU1" s="5" t="s">
+      <c r="BV1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="BV1" s="5" t="s">
+      <c r="BW1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="BW1" s="5" t="s">
+      <c r="BX1" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="BX1" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="BY1" s="4" t="s">
         <v>16</v>
@@ -18499,19 +18560,19 @@
         <v>20</v>
       </c>
       <c r="CD1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="CE1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="CE1" s="5" t="s">
+      <c r="CF1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="CF1" s="5" t="s">
+      <c r="CG1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="CG1" s="5" t="s">
+      <c r="CH1" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="CH1" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="CI1" s="4" t="s">
         <v>17</v>
@@ -18523,19 +18584,19 @@
         <v>20</v>
       </c>
       <c r="CN1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="CO1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="CO1" s="5" t="s">
+      <c r="CP1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="CP1" s="5" t="s">
+      <c r="CQ1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="CQ1" s="5" t="s">
+      <c r="CR1" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="CR1" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="CS1" s="4" t="s">
         <v>18</v>
@@ -18547,22 +18608,22 @@
         <v>20</v>
       </c>
       <c r="CX1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="CY1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="CY1" s="5" t="s">
+      <c r="CZ1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="CZ1" s="5" t="s">
+      <c r="DA1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="DA1" s="5" t="s">
+      <c r="DB1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="DB1" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="DC1" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="DF1" s="5" t="s">
         <v>19</v>
@@ -18571,22 +18632,22 @@
         <v>20</v>
       </c>
       <c r="DH1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="DI1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="DI1" s="5" t="s">
+      <c r="DJ1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="DJ1" s="5" t="s">
+      <c r="DK1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="DK1" s="5" t="s">
+      <c r="DL1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="DL1" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="DM1" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="DP1" s="5" t="s">
         <v>19</v>
@@ -18595,22 +18656,22 @@
         <v>20</v>
       </c>
       <c r="DR1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="DS1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="DS1" s="5" t="s">
+      <c r="DT1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="DT1" s="5" t="s">
+      <c r="DU1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="DU1" s="5" t="s">
+      <c r="DV1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="DV1" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="DW1" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="DZ1" s="5" t="s">
         <v>19</v>
@@ -18619,22 +18680,22 @@
         <v>20</v>
       </c>
       <c r="EB1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="EC1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="EC1" s="5" t="s">
+      <c r="ED1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="ED1" s="5" t="s">
+      <c r="EE1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="EE1" s="5" t="s">
+      <c r="EF1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="EF1" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="EG1" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="EJ1" s="5" t="s">
         <v>19</v>
@@ -18643,22 +18704,22 @@
         <v>20</v>
       </c>
       <c r="EL1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="EM1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="EM1" s="5" t="s">
+      <c r="EN1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="EN1" s="5" t="s">
+      <c r="EO1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="EO1" s="5" t="s">
+      <c r="EP1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="EP1" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="EQ1" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="ET1" s="5" t="s">
         <v>19</v>
@@ -18667,22 +18728,22 @@
         <v>20</v>
       </c>
       <c r="EV1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="EW1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="EW1" s="5" t="s">
+      <c r="EX1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="EX1" s="5" t="s">
+      <c r="EY1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="EY1" s="5" t="s">
+      <c r="EZ1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="EZ1" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="FA1" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="FD1" s="5" t="s">
         <v>19</v>
@@ -18691,22 +18752,22 @@
         <v>20</v>
       </c>
       <c r="FF1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="FG1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="FG1" s="5" t="s">
+      <c r="FH1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="FH1" s="5" t="s">
+      <c r="FI1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="FI1" s="5" t="s">
+      <c r="FJ1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="FJ1" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="FK1" s="4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="FN1" s="5" t="s">
         <v>19</v>
@@ -18715,22 +18776,22 @@
         <v>20</v>
       </c>
       <c r="FP1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="FQ1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="FQ1" s="5" t="s">
+      <c r="FR1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="FR1" s="5" t="s">
+      <c r="FS1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="FS1" s="5" t="s">
+      <c r="FT1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="FT1" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="FU1" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="FX1" s="5" t="s">
         <v>19</v>
@@ -18739,22 +18800,22 @@
         <v>20</v>
       </c>
       <c r="FZ1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="GA1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="GA1" s="5" t="s">
+      <c r="GB1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="GB1" s="5" t="s">
+      <c r="GC1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="GC1" s="5" t="s">
+      <c r="GD1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="GD1" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="GE1" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="GH1" s="5" t="s">
         <v>19</v>
@@ -18763,22 +18824,22 @@
         <v>20</v>
       </c>
       <c r="GJ1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="GK1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="GK1" s="5" t="s">
+      <c r="GL1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="GL1" s="5" t="s">
+      <c r="GM1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="GM1" s="5" t="s">
+      <c r="GN1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="GN1" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="GO1" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="GR1" s="5" t="s">
         <v>19</v>
@@ -18787,19 +18848,19 @@
         <v>20</v>
       </c>
       <c r="GT1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="GU1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="GU1" s="5" t="s">
+      <c r="GV1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="GV1" s="5" t="s">
+      <c r="GW1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="GW1" s="5" t="s">
+      <c r="GX1" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="GX1" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:206" x14ac:dyDescent="0.2">
@@ -47607,517 +47668,517 @@
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="12">
+      <c r="B1" s="11">
         <f>'Input Sheet'!K2</f>
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="12">
+      <c r="E1" s="11">
         <f>'Input Sheet'!K3</f>
         <v>0</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12">
+      <c r="L1" s="11">
         <f>'Input Sheet'!K4</f>
         <v>0</v>
       </c>
       <c r="R1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="12">
+      <c r="S1" s="11">
         <f>'Input Sheet'!K5</f>
         <v>0</v>
       </c>
       <c r="Y1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="12">
+      <c r="Z1" s="11">
         <f>'Input Sheet'!K6</f>
         <v>0</v>
       </c>
       <c r="AF1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AG1" s="12">
+      <c r="AG1" s="11">
         <f>'Input Sheet'!K7</f>
         <v>0</v>
       </c>
       <c r="AM1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AN1" s="12">
+      <c r="AN1" s="11">
         <f>'Input Sheet'!K8</f>
         <v>0</v>
       </c>
       <c r="AT1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AU1" s="12">
+      <c r="AU1" s="11">
         <f>'Input Sheet'!K9</f>
         <v>0</v>
       </c>
       <c r="BA1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="BB1" s="12">
+      <c r="BB1" s="11">
         <f>'Input Sheet'!K10</f>
         <v>0</v>
       </c>
       <c r="BH1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="BI1" s="12">
+      <c r="BI1" s="11">
         <f>'Input Sheet'!K11</f>
         <v>0</v>
       </c>
       <c r="BO1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="BP1" s="12">
+      <c r="BP1" s="11">
         <f>'Input Sheet'!K12</f>
         <v>0</v>
       </c>
       <c r="BV1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="BW1" s="11">
+        <f>'Input Sheet'!K13</f>
+        <v>0</v>
+      </c>
+      <c r="CC1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="CD1" s="11">
+        <f>'Input Sheet'!K14</f>
+        <v>0</v>
+      </c>
+      <c r="CJ1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK1" s="11">
+        <f>'Input Sheet'!K15</f>
+        <v>0</v>
+      </c>
+      <c r="CQ1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="CR1" s="11">
+        <f>'Input Sheet'!K16</f>
+        <v>0</v>
+      </c>
+      <c r="CX1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="BW1" s="12">
-        <f>'Input Sheet'!K13</f>
-        <v>0</v>
-      </c>
-      <c r="CC1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="CD1" s="12">
-        <f>'Input Sheet'!K14</f>
-        <v>0</v>
-      </c>
-      <c r="CJ1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="CK1" s="12">
-        <f>'Input Sheet'!K15</f>
-        <v>0</v>
-      </c>
-      <c r="CQ1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="CR1" s="12">
-        <f>'Input Sheet'!K16</f>
-        <v>0</v>
-      </c>
-      <c r="CX1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="CY1" s="12">
+      <c r="CY1" s="11">
         <f>'Input Sheet'!K17</f>
         <v>0</v>
       </c>
       <c r="DE1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="DF1" s="12">
+        <v>33</v>
+      </c>
+      <c r="DF1" s="11">
         <f>'Input Sheet'!K18</f>
         <v>0</v>
       </c>
       <c r="DL1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="DM1" s="12">
+        <v>32</v>
+      </c>
+      <c r="DM1" s="11">
         <f>'Input Sheet'!K19</f>
         <v>0</v>
       </c>
       <c r="DS1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="DT1" s="12">
+        <v>31</v>
+      </c>
+      <c r="DT1" s="11">
         <f>'Input Sheet'!K20</f>
         <v>0</v>
       </c>
       <c r="DZ1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="EA1" s="12">
+        <v>30</v>
+      </c>
+      <c r="EA1" s="11">
         <f>'Input Sheet'!K21</f>
         <v>0</v>
       </c>
       <c r="EG1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="EH1" s="12">
+        <v>29</v>
+      </c>
+      <c r="EH1" s="11">
         <f>'Input Sheet'!K22</f>
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:142" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
         <v>20</v>
       </c>
       <c r="M2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="R2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S2" t="s">
         <v>20</v>
       </c>
       <c r="T2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="Y2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z2" t="s">
         <v>20</v>
       </c>
       <c r="AA2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AC2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AD2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AD2" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="AF2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG2" t="s">
         <v>20</v>
       </c>
       <c r="AH2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="AK2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AK2" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="AM2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN2" t="s">
         <v>20</v>
       </c>
       <c r="AO2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AP2" s="5" t="s">
+      <c r="AQ2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AQ2" s="5" t="s">
+      <c r="AR2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AR2" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="AT2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU2" t="s">
         <v>20</v>
       </c>
       <c r="AV2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AW2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AW2" s="5" t="s">
+      <c r="AX2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AX2" s="5" t="s">
+      <c r="AY2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AY2" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="BA2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB2" t="s">
         <v>20</v>
       </c>
       <c r="BC2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="BD2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="BD2" s="5" t="s">
+      <c r="BE2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="BE2" s="5" t="s">
+      <c r="BF2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="BF2" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="BH2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BI2" t="s">
         <v>20</v>
       </c>
       <c r="BJ2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="BK2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="BK2" s="5" t="s">
+      <c r="BL2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="BL2" s="5" t="s">
+      <c r="BM2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="BM2" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="BO2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BP2" t="s">
         <v>20</v>
       </c>
       <c r="BQ2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="BR2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="BR2" s="5" t="s">
+      <c r="BS2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="BS2" s="5" t="s">
+      <c r="BT2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="BT2" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="BV2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BW2" t="s">
         <v>20</v>
       </c>
       <c r="BX2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="BY2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="BY2" s="5" t="s">
+      <c r="BZ2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="BZ2" s="5" t="s">
+      <c r="CA2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="CA2" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="CC2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="CD2" t="s">
         <v>20</v>
       </c>
       <c r="CE2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="CF2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="CF2" s="5" t="s">
+      <c r="CG2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="CG2" s="5" t="s">
+      <c r="CH2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="CH2" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="CJ2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="CK2" t="s">
         <v>20</v>
       </c>
       <c r="CL2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="CM2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="CM2" s="5" t="s">
+      <c r="CN2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="CN2" s="5" t="s">
+      <c r="CO2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="CO2" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="CQ2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="CR2" t="s">
         <v>20</v>
       </c>
       <c r="CS2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="CT2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="CT2" s="5" t="s">
+      <c r="CU2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="CU2" s="5" t="s">
+      <c r="CV2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="CV2" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="CX2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="CY2" t="s">
         <v>20</v>
       </c>
       <c r="CZ2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="DA2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="DA2" s="5" t="s">
+      <c r="DB2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="DB2" s="5" t="s">
+      <c r="DC2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="DC2" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="DE2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="DF2" t="s">
         <v>20</v>
       </c>
       <c r="DG2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="DH2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="DH2" s="5" t="s">
+      <c r="DI2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="DI2" s="5" t="s">
+      <c r="DJ2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="DJ2" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="DL2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="DM2" t="s">
         <v>20</v>
       </c>
       <c r="DN2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="DO2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="DO2" s="5" t="s">
+      <c r="DP2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="DP2" s="5" t="s">
+      <c r="DQ2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="DQ2" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="DS2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="DT2" t="s">
         <v>20</v>
       </c>
       <c r="DU2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="DV2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="DV2" s="5" t="s">
+      <c r="DW2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="DW2" s="5" t="s">
+      <c r="DX2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="DX2" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="DZ2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="EA2" t="s">
         <v>20</v>
       </c>
       <c r="EB2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="EC2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="EC2" s="5" t="s">
+      <c r="ED2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="ED2" s="5" t="s">
+      <c r="EE2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="EE2" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="EG2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="EH2" t="s">
         <v>20</v>
       </c>
       <c r="EI2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="EJ2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="EJ2" s="5" t="s">
+      <c r="EK2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="EK2" s="5" t="s">
+      <c r="EL2" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="EL2" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:142" x14ac:dyDescent="0.2">

--- a/ixo_qpcr_analysis_automation_TEMPLATE.xlsx
+++ b/ixo_qpcr_analysis_automation_TEMPLATE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewcox/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewcox/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369CED77-A174-5E49-818E-24BDB8125E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B16EB14-C10E-064D-B3D5-1B21B69C47B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16540" xr2:uid="{E4238D87-52D2-44A5-BC30-F7CF3E81FAA4}"/>
   </bookViews>
@@ -246,25 +246,13 @@
     <t>Target gene 13</t>
   </si>
   <si>
-    <t>STEP 1: Copy from LightCycler480 analysis. Click ONCE on cell A1. Finally Paste the table.</t>
-  </si>
-  <si>
     <t>https://github.com/MCox-MDIBL/MCOX_MDIBL_Tools-and-Resources</t>
   </si>
   <si>
     <t>INSTRUCTIONS:</t>
   </si>
   <si>
-    <t xml:space="preserve">STEP 3: Target list - Fill in all genes tested with Housekeeper gene on top in the grey column directly below (Column K).                    </t>
-  </si>
-  <si>
-    <t>STEP 4: Sample list -  Fill in all sample names with the control sample on top in the grey column directly below (Column L).</t>
-  </si>
-  <si>
     <t xml:space="preserve">Unique samples -  Pulled programatically for ease of rearangment in the adjacent column. (Should be populated after Step 3).                         </t>
-  </si>
-  <si>
-    <t>STEP 2: Fill in measured Target genes  in the "Concentration" column for each well (Column 'E').</t>
   </si>
   <si>
     <t>If, after inputting all relevant data, the final outputs sheet is still missing your data, press CTL + ALT +  F9 (PC) or Command + Alt + F9 (MAC) to recalculate, or refresh, all sheets. If any mistakes or concerns come up, please feel free to email me: mcox@mdibl.org</t>
@@ -272,12 +260,48 @@
   <si>
     <t>Original template can be downloaded as many times as necessary from my GitHub link.          -----&gt;</t>
   </si>
+  <si>
+    <t>STEP 1: Copy from LightCycler480 analysis. Click ONCE on cell A1,  paste the table.</t>
+  </si>
+  <si>
+    <r>
+      <t>STEP 3: In Column K (directly below), fill in your list of tested genes.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> Make sure your Housekeeper gene is at the top of the list!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">STEP 4: In Column L (directly below), fill in your biological sample names. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>Make sure your "Control" sample is at the top of the list!</t>
+    </r>
+  </si>
+  <si>
+    <t>STEP 2: In Column E of your pasted table (Should be labeled "Concentration" after pasting),  fill in each well's tested gene  name.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +375,13 @@
       <b/>
       <u/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow (Body)"/>
     </font>
@@ -868,9 +899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FBD871-6FDE-45A9-972E-DE2D696F694F}">
   <dimension ref="A1:P253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -879,7 +908,7 @@
     <col min="9" max="9" width="18.33203125" customWidth="1"/>
     <col min="10" max="10" width="19.6640625" customWidth="1"/>
     <col min="11" max="11" width="23.1640625" customWidth="1"/>
-    <col min="12" max="12" width="20.5" customWidth="1"/>
+    <col min="12" max="12" width="22.83203125" customWidth="1"/>
     <col min="13" max="13" width="22.5" customWidth="1"/>
     <col min="14" max="14" width="41.1640625" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
@@ -895,31 +924,31 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="N1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
